--- a/Planilhas/analise_ordinaria_consolidada.xlsx
+++ b/Planilhas/analise_ordinaria_consolidada.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U2"/>
+  <dimension ref="A1:U65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -541,107 +541,6564 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>727078</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>727078</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
+      <c r="A2" t="n">
+        <v>727078</v>
+      </c>
+      <c r="B2" t="n">
+        <v>727078</v>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13 de Mai de 2025</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Naturalização Ordinária</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Indeferimento</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Não encontrado</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Nenhum</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Processo indeferido por não atender aos requisitos</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>❌ NÃO ATENDIDO - Capacidade Civil não atendido</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>❌ NÃO ATENDIDO - Residência Mínima não atendido</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>❌ NÃO ATENDIDO - Comunicação Português não atendido</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>❌ NÃO ATENDIDO - ❌ NÃO ATENDIDO</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>0/4</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>13/11/2025</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>15:41:29</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>Não atendeu 1 requisito(s)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>580.183</v>
+      </c>
+      <c r="B3" t="n">
+        <v>580183</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>15 de Abr de 2024</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Naturalização Ordinária</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Indeferimento</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Art. 65, inciso II da Lei nº 13.445/2017; Art. 65, inciso IV da Lei nº 13.445/2017</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Indeferimento</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Excedeu limite de ausência do país</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Processo indeferido por não atender aos requisitos</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>❌ NÃO ATENDIDO - Tempo insuficiente: 3.00 anos &lt; 3.95 anos</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>❌ NÃO ATENDIDO - Antecedentes criminais inválidos ou não anexados</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>✅ 100% (4/4)</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>6/8</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>75.0%</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>14/11/2025</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>21:35:22</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>1. Nos termos da legislação, realizadas as diligências necessárias à instrução do presente pedido de Naturalização Ordinária apresento o Relatório Opinativo. 
+2. De acordo com a documentação apresentada o naturalizando possui capacidade civil. 
+3. Em relação às condições exigidas para a naturalização ordinária, verificou-se que possui 03 anos e 08 meses de residência por prazo indeterminado, imediatamente anteriores ao pedido de naturalização. 
+4. Sua capacidade de comunicar-se em língua port...</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>Não atendeu 2 requisito(s)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>784408</v>
+      </c>
+      <c r="B4" t="n">
+        <v>784408</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>13 de Out de 2025</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Naturalização Ordinária</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Indeferimento</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Art. 65, inciso II da Lei nº 13.445/2017; Art. 65, inciso III da Lei nº 13.445/2017; Art. 65, inciso IV da Lei nº 13.445/2017; Não anexou item 4; Não anexou item 3; Não anexou item 2</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Indeferimento</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Nenhum</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Processo indeferido por não atender aos requisitos</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>❌ NÃO ATENDIDO - Prazo de residência não localizado nos campos do sistema</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>❌ NÃO ATENDIDO - Não anexou item 13 - Comprovante de comunicação em português</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>❌ NÃO ATENDIDO - Antecedentes criminais inválidos ou não anexados</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>✅ 25% (1/4)</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>2/8</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>25.0%</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>15/11/2025</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>22:51:34</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>Nos termos da legislação, realizadas as diligências necessárias à instrução do pedido de naturalização, apresento o presente Parecer.
+Foi constatado que o imigrante não faz jus à forma de naturalização pretendida.
+Destarte, NÃO cumpre os requisitos necessários para a obtenção da naturalização DEFINITIVA. Conforme previsão legal:
+“Art. 246. A naturalização provisória será convertida em definitiva se o naturalizando expressamente assim o requerer ao Ministério da Justiça e Segurança Pública no pr...</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>Não atendeu 3 requisito(s)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>790167</v>
+      </c>
+      <c r="B5" t="n">
+        <v>790167</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>23 de Out de 2025</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Naturalização Ordinária</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Indeferimento</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Art. 65, inciso II da Lei nº 13.445/2017</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Indeferimento</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Nenhum</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Processo indeferido por não atender aos requisitos</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>❌ NÃO ATENDIDO - Prazo de residência não localizado nos campos do sistema</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>✅ 100% (4/4)</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>7/8</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>87.5%</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>16/11/2025</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>00:20:21</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>Visando à instrução do processo de NATURALIZAÇÃO ORDINÁRIA requerido pelo Naturalizando CARINE JEAN JACQUES, foram realizadas as diligências a seguir descritas:
+1. Não foi identificado início de falsidade documental ou contradição na documentação apresentada. 
+2. Para confirmação do tempo de residência por prazo indeterminado foram juntados ao processo:
+2.1. Certidão de Movimentos Migratórios
+2.1.1. A requerente NÃO ausentou-se do território nacional desde sua chegada em 2016.
+2.2. ......
+2.3. ...</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>Não atendeu 1 requisito(s)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>790067</v>
+      </c>
+      <c r="B6" t="n">
+        <v>790067</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>23 de Out de 2025</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Naturalização Ordinária</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Indeferimento</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Art. 65, inciso II da Lei nº 13.445/2017</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Indeferimento</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Nenhum</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Processo indeferido por não atender aos requisitos</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>❌ NÃO ATENDIDO - Prazo de residência não localizado nos campos do sistema</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>✅ 100% (4/4)</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>7/8</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>87.5%</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>16/11/2025</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>00:21:33</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>Visando à instrução do processo de NATURALIZAÇÃO ORDINÁRIA requerido pelo Naturalizando MD KAYSOR AHMED, foram realizadas as diligências a seguir descritas:
+1. Não foi identificado início de falsidade documental ou contradição na documentação apresentada. 
+2. Para confirmação do tempo de residência por prazo indeterminado foram juntados ao processo:
+2.1. Certidão de Movimentos Migratórios
+2.1.1. O requerente NÃO ausentou-se do território nacional desde sua última entrada em 2016. 
+2.2. ......
+2...</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>Não atendeu 1 requisito(s)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>789673</v>
+      </c>
+      <c r="B7" t="n">
+        <v>789673</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>22 de Out de 2025</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Naturalização Ordinária</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Indeferimento</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Art. 65, inciso III da Lei nº 13.445/2017</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Indeferimento</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Nenhum</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Processo indeferido por não atender aos requisitos</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>❌ NÃO ATENDIDO - Não anexou item 13 - Comprovante de comunicação em português</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>✅ 100% (4/4)</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>7/8</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>87.5%</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>16/11/2025</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>00:23:05</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>1. Nos termos da legislação, realizadas as diligências necessárias à instrução do presente pedido de Naturalização Ordinária apresento o presente Relatório Opinativo.
+2. A relação de documentos exigidos pela legislação foi apresentada integralmente conforme documentos juntados ao processo.
+3. De acordo com a documentação apresentada o naturalizando possui capacidade civil.
+4. Em relação às condições exigidas para a naturalização ordinária, verificou-se que possui 14 anos e 06 meses de residên...</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>Não atendeu 1 requisito(s)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>789568</v>
+      </c>
+      <c r="B8" t="n">
+        <v>789568</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>22 de Out de 2025</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Naturalização Ordinária</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Indeferimento</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Art. 65, inciso II da Lei nº 13.445/2017</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Indeferimento</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Nenhum</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Processo indeferido por não atender aos requisitos</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>❌ NÃO ATENDIDO - Prazo de residência não localizado nos campos do sistema</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>✅ 100% (4/4)</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>7/8</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>87.5%</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>16/11/2025</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>00:25:48</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>Visando à instrução do processo de NATURALIZAÇÃO ORDINÁRIA requerido pelo Naturalizando BETCHINA JEAN, foram realizadas as diligências a seguir descritas:
+1. Não foi identificado início de falsidade documental ou contradição na documentação apresentada. 
+2. Para confirmação do tempo de residência por prazo indeterminado foram juntados ao processo:
+2.1. Certidão de Movimentos Migratórios
+2.1.1. A requerente NÃO ausentou-se do território nacional desde sua chegada em 2021 tendo entrado por Manaus...</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>Não atendeu 1 requisito(s)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>789389</v>
+      </c>
+      <c r="B9" t="n">
+        <v>789389</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>22 de Out de 2025</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Naturalização Ordinária</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Indeferimento</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Art. 65, inciso II da Lei nº 13.445/2017</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Indeferimento</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Nenhum</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Processo indeferido por não atender aos requisitos</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>❌ NÃO ATENDIDO - Prazo de residência não localizado nos campos do sistema</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>✅ 100% (4/4)</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>7/8</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>87.5%</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>16/11/2025</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>00:29:19</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>Visando à instrução do processo de NATURALIZAÇÃO ORDINÁRIA requerido pelo Naturalizando HENRY FRANCOIS, foram realizadas as diligências a seguir descritas:
+1. Não foi identificado início de falsidade documental ou contradição na documentação apresentada. 
+2. Para confirmação do tempo de residência por prazo indeterminado foram juntados ao processo:
+2.1. Certidão de Movimentos Migratórios
+2.1.1. O requerente NÃO ausentou-se do território nacional desde sua chegada em 2021.
+2.2. ......
+2.3. Regis...</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>Não atendeu 1 requisito(s)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>788531</v>
+      </c>
+      <c r="B10" t="n">
+        <v>788531</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>20 de Out de 2025</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Naturalização Ordinária</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Indeferimento</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Art. 65, inciso II da Lei nº 13.445/2017; Não anexou item 4; Não anexou item 3</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Indeferimento</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Nenhum</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Processo indeferido por não atender aos requisitos</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>❌ NÃO ATENDIDO - Prazo de residência não localizado nos campos do sistema</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>✅ 50% (2/4)</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>5/8</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>62.5%</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>16/11/2025</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>00:30:46</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>1. Nos termos da legislação, realizadas as diligências necessárias à instrução do presente pedido de Naturalização Ordinária apresento o presente Relatório Opinativo.
+2. A naturalizanda não possui quatro anos de residência por prazo indeterminado.  Diante do exposto, encaminhe-se ao Ministério da Justiça e Segurança Pública com opinião DESFAVORÁVEL AO DEFERIMENTO em razão do não preenchimento da(s) condições(s).</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>Não atendeu 1 requisito(s)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>788034</v>
+      </c>
+      <c r="B11" t="n">
+        <v>788034</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>20 de Out de 2025</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Naturalização Ordinária</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Indeferimento</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Art. 65, inciso II da Lei nº 13.445/2017; Não anexou item 8</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Indeferimento</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Nenhum</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Processo indeferido por não atender aos requisitos</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>❌ NÃO ATENDIDO - Prazo de residência não localizado nos campos do sistema</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>✅ 75% (3/4)</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>6/8</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>75.0%</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>16/11/2025</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>00:32:58</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>RELATóRIO OPINATIVO/PARECER
+DATA 29/10/2025
+Naturalizando
+MOUSTAPHA GUEYE - G404668P: 
+1. Nos termos da legislação, realizadas as diligências necessárias à instrução do presente pedido de Naturalização ordinária apresento o presente Relatório Opinativo/Parecer.
+2. O naturalizando não apresenta RNM válido para solicitar naturalização.
+3. Em relação às condições exigidas para a naturalização ordinária, verificou-se que possui RNM CANCELADO, não possuindo assim condição primeira a solicitaçã...</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>Não atendeu 1 requisito(s)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>787269</v>
+      </c>
+      <c r="B12" t="n">
+        <v>787269</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>19 de Out de 2025</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Naturalização Ordinária</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Indeferimento</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Art. 65, inciso II da Lei nº 13.445/2017</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Indeferimento</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Nenhum</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Processo indeferido por não atender aos requisitos</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>❌ NÃO ATENDIDO - Prazo de residência não localizado nos campos do sistema</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>✅ 100% (4/4)</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>7/8</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>87.5%</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>16/11/2025</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>00:35:11</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>Nos termos da legislação, realizadas as diligências necessárias à instrução do pedido de naturalização, apresento o presente Parecer.
+Foi constatado que o imigrante não possui redutor de prazo e nem tempo de residência por prazo indeterminado para a forma de naturalização pretendida.
+Residente no Brasil por prazo indeterminado desde 22/08/2022, totalizando 3 (três) anos e 1 (um) meses.
+Destarte, NÃO cumpre os requisitos necessários para a obtenção da naturalização ORDINÁRIA.
+“Art. 233. No proce...</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>Não atendeu 1 requisito(s)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>786993</v>
+      </c>
+      <c r="B13" t="n">
+        <v>786993</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>18 de Out de 2025</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Naturalização Ordinária</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Indeferimento</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Art. 65, inciso IV da Lei nº 13.445/2017</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Indeferimento</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Nenhum</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Processo indeferido por não atender aos requisitos</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>❌ NÃO ATENDIDO - Antecedentes criminais inválidos ou não anexados</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>✅ 100% (4/4)</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>7/8</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>87.5%</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>16/11/2025</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>00:36:58</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>1. Nos termos da legislação, realizadas as diligências necessárias à instrução do presente pedido de Naturalização Ordinária de THOMAS FLERILUS, apresento o presente Relatório Opinativo.
+2. A relação de documentos exigidos pela legislação, foi apresentada integralmente conforme documentos juntados ao processo.
+3. De acordo com a documentação apresentada, o naturalizando possui capacidade civil.
+4. Em relação às condições exigidas para a naturalização ordinária, verificou-se que possui 4 anos ...</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>Não atendeu 1 requisito(s)</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>786623</v>
+      </c>
+      <c r="B14" t="n">
+        <v>786623</v>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>17 de Out de 2025</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Naturalização Ordinária</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Indeferimento</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Art. 65, inciso II da Lei nº 13.445/2017</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Indeferimento</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Nenhum</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Processo indeferido por não atender aos requisitos</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>❌ NÃO ATENDIDO - Prazo de residência não localizado nos campos do sistema</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>✅ 100% (4/4)</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>7/8</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>87.5%</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>16/11/2025</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>00:38:16</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>Visando à instrução do processo de NATURALIZAÇÃO ORDINÁRIA requerido pelo Naturalizando TCHATCHIBARA AGORO, foram realizadas as diligências a seguir descritas:
+1. Não foi identificado início de falsidade documental ou contradição na documentação apresentada. 
+2. Para confirmação do tempo de residência por prazo indeterminado foram juntados ao processo:
+2.1. Certidão de Movimentos Migratórios
+2.1.1. O requerente NÃO ausentou-se do território nacional desde 2019.
+2.2. ......
+2.3. Registrou-se com...</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>Não atendeu 1 requisito(s)</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>785932</v>
+      </c>
+      <c r="B15" t="n">
+        <v>785932</v>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>16 de Out de 2025</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Naturalização Ordinária</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Indeferimento</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Art. 65, inciso II da Lei nº 13.445/2017; Art. 65, inciso IV da Lei nº 13.445/2017</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Indeferimento</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Nenhum</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Processo indeferido por não atender aos requisitos</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>❌ NÃO ATENDIDO - Tempo insuficiente: 2.50 anos &lt; 3.95 anos</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>❌ NÃO ATENDIDO - Antecedentes criminais inválidos ou não anexados</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>✅ 100% (4/4)</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>6/8</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>75.0%</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>16/11/2025</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>00:39:56</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>Nos termos da legislação, realizadas as diligências necessárias à instrução do pedido de naturalização, apresento o presente Parecer.
+Foi constatado que o imigrante não possui redutor de prazo e nem tempo de residência por prazo indeterminado para a forma de naturalização pretendida.
+Residente no Brasil por prazo indeterminado desde 04/04/2023, totalizando 2 (dois) anos e 6 (seis) meses.
+Destarte, NÃO cumpre os requisitos necessários para a obtenção da naturalização ORDINÁRIA.
+“Art. 233. No pro...</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>Não atendeu 2 requisito(s)</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>785896</v>
+      </c>
+      <c r="B16" t="n">
+        <v>785896</v>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>16 de Out de 2025</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Naturalização Ordinária</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Indeferimento</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Art. 65, inciso II da Lei nº 13.445/2017</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Indeferimento</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Nenhum</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Processo indeferido por não atender aos requisitos</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>❌ NÃO ATENDIDO - Prazo de residência não localizado nos campos do sistema</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>✅ 100% (4/4)</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>7/8</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>87.5%</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>16/11/2025</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>00:41:27</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>Nos termos da legislação, realizadas as diligências necessárias à instrução do pedido de naturalização, apresento o presente Parecer.
+A relação de documentos exigidos pela legislação NÃO foi apresentada integralmente. Ficaram faltantes:
+- Tradução dos antecedentes criminais emitido pelo país de origem;
+- Comprovante de situação cadastral;
+- Antecedentes criminais emitido pela Justiça Estadual: 1º, 2º e 3º ofícios;
+- Antecedentes criminais emitido pelo Cartório Criminal de Quatro Barras;
+- Compr...</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>Não atendeu 1 requisito(s)</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>785440</v>
+      </c>
+      <c r="B17" t="n">
+        <v>785440</v>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>14 de Out de 2025</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Naturalização Ordinária</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Indeferimento</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Não anexou item 2</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Indeferimento</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Nenhum</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Processo indeferido por não atender aos requisitos</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>✅ 75% (3/4)</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>7/8</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>87.5%</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>16/11/2025</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>00:42:54</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>1. Nos termos da legislação, realizadas as diligências necessárias à instrução do presente pedido de Naturalização Ordinária de EDICSON JOSE COLMENAREZ OVALLES, apresento o presente Relatório Opinativo.
+2. A relação de documentos exigidos pela legislação, foi apresentada integralmente conforme documentos juntados ao processo.
+3. De acordo com a documentação apresentada, o naturalizando possui capacidade civil.
+4. Em relação às condições exigidas para a naturalização ordinária, verificou-se qu...</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>Não atendeu 0 requisito(s)</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>784683</v>
+      </c>
+      <c r="B18" t="n">
+        <v>784683</v>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>13 de Out de 2025</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Naturalização Ordinária</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Indeferimento</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Indeferimento</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Nenhum</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Processo indeferido por não atender aos requisitos</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>✅ 100% (4/4)</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>8/8</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>16/11/2025</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>00:44:34</t>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>Nos termos da legislação, realizadas as diligências necessárias à instrução do presente pedido de Naturalização Ordinária nº 784.683, apresento o presente Relatório Opinativo.
+1. A relação de documentos exigidos pela legislação foi apresentada integralmente conforme documentos juntados ao processo.
+2. De acordo com a documentação apresentada, o(a) naturalizando(a) possui capacidade civil.
+3. Em relação às condições exigidas para a naturalização ordinária, verificou-se que possui 09 anos e 11 ...</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>Não atendeu 0 requisito(s)</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>784416</v>
+      </c>
+      <c r="B19" t="n">
+        <v>784416</v>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>13 de Out de 2025</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Naturalização Ordinária</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Indeferimento</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Art. 65, inciso II da Lei nº 13.445/2017</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Indeferimento</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Nenhum</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Processo indeferido por não atender aos requisitos</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>❌ NÃO ATENDIDO - Prazo de residência não localizado nos campos do sistema</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>✅ 100% (4/4)</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>7/8</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>87.5%</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>16/11/2025</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>00:46:17</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>Pedido de Naturalização Ordinária com Redução de Prazo 
+Requerente: SAMIRA MOHAMMAD SHARIF
+Fundamento Legal: Artigo 12, inciso II, alínea ‘b’ da Constituição Federal; Artigo 65 da Lei nº 13.445/2017.
+Após a devida instrução processual do pedido de naturalização ordinária com redução de prazo formulado por SAMIRA MOHAMMAD SHARIF, nacional do Afeganistão, cumpre apresentar as seguintes constatações:
+Análise Documental e Residencial:
+•	Documentação: A análise dos documentos apresentados não reve...</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>Não atendeu 1 requisito(s)</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>784276</v>
+      </c>
+      <c r="B20" t="n">
+        <v>784276</v>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>13 de Out de 2025</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Naturalização Ordinária</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Indeferimento</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Art. 65, inciso II da Lei nº 13.445/2017; Art. 65, inciso III da Lei nº 13.445/2017</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Indeferimento</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Nenhum</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Processo indeferido por não atender aos requisitos</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>❌ NÃO ATENDIDO - Prazo de residência não localizado nos campos do sistema</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>❌ NÃO ATENDIDO - Não anexou item 13 - Comprovante de comunicação em português</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>✅ 100% (4/4)</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>6/8</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>75.0%</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>16/11/2025</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>00:48:11</t>
+        </is>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>INFORMAÇÃO CONSOLIDADA
+ASSUNTO: PEDIDO DE NATURALIZAÇÃO “ORDINÁRIA” 
+CÓDIGO: 784.276
+PROTOCOLO: 235881.0664850/2025
+INTERESSADO: SECO MANÉ
+PAÍS DE NACIONALIDADE: GUINÉ-BISSAU
+RNM: F220704-3
+Visando a instrução do processo de NATURALIZAÇÃO “ORDINÁRIA” requerido pelo interessado acima identificado, foram realizadas as diligências descritas a seguir:
+1.	Preliminarmente, foram realizadas pesquisas nos sistemas SISMIGRA; SINAPSE; STI WEB; SEI e SONAR, ficando prejudicado e desnecessário se ater a ...</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>Não atendeu 2 requisito(s)</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>784091</v>
+      </c>
+      <c r="B21" t="n">
+        <v>784091</v>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>12 de Out de 2025</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Naturalização Ordinária</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Indeferimento</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Art. 65, inciso II da Lei nº 13.445/2017</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Indeferimento</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Nenhum</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Processo indeferido por não atender aos requisitos</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>❌ NÃO ATENDIDO - Prazo de residência não localizado nos campos do sistema</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>✅ 100% (4/4)</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>7/8</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>87.5%</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>16/11/2025</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>00:50:37</t>
+        </is>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>Visando à instrução do processo de NATURALIZAÇÃO ORDINÁRIA requerido pelo Naturalizando RUMI BEGUM, foram realizadas as diligências a seguir descritas:
+1.Não foi identificado início de falsidade documental ou contradição na documentação apresentada. 
+2. Para confirmação do tempo de residência por prazo indeterminado foram juntados ao processo:
+2.1. Certidão de Movimentos Migratórios
+2.1.1. A requerente NÃO ausentou-se do território nacional desde sua chegada em 2022.
+2.2. ......
+2.3. Registrou-...</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>Não atendeu 1 requisito(s)</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>784088</v>
+      </c>
+      <c r="B22" t="n">
+        <v>784088</v>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>12 de Out de 2025</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Naturalização Ordinária</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Indeferimento</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Art. 65, inciso II da Lei nº 13.445/2017</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Indeferimento</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Nenhum</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Processo indeferido por não atender aos requisitos</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>❌ NÃO ATENDIDO - Prazo de residência não localizado nos campos do sistema</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>✅ 100% (4/4)</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>7/8</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>87.5%</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>16/11/2025</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>00:52:33</t>
+        </is>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>Visando à instrução do processo de NATURALIZAÇÃO ORDINÁRIA requerido pelo Naturalizando MOHAMMED ANWAR HUSSAIN, foram realizadas as diligências a seguir descritas:
+1. Não foi identificado início de falsidade documental ou contradição na documentação apresentada. 
+2. Para confirmação do tempo de residência por prazo indeterminado foram juntados ao processo:
+2.1. Certidão de Movimentos Migratórios
+2.1.1. O requerente não ausentou-se do território nacional desde 2020, não excedendo o prazo máximo ...</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>Não atendeu 1 requisito(s)</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>783725</v>
+      </c>
+      <c r="B23" t="n">
+        <v>783725</v>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>11 de Out de 2025</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Naturalização Ordinária</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Indeferimento</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Art. 65, inciso I da Lei nº 13.445/2017</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Indeferimento</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Nenhum</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Processo indeferido por não atender aos requisitos</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>❌ NÃO ATENDIDO - Possui 10 anos (&lt; 18 anos)</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>✅ 100% (4/4)</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>7/8</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>87.5%</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>16/11/2025</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>00:54:34</t>
+        </is>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>RELATóRIO OPINATIVO/PARECER
+DATA 20/10/2025
+Naturalizando
+NDIAGA SALL - G480093M: 
+1. Nos termos da legislação, realizadas as diligências necessárias à instrução do presente pedido de Naturalização Ordinária apresento o presente Relatório Opinativo/Parecer.
+2. A relação de documentos exigidos pela legislação, foi apresentada integralmente conforme documentos juntados ao processo.
+3. De acordo com a documentação apresentada, o naturalizando possui capacidade civil.
+4. Em relação às condiç...</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>Não atendeu 1 requisito(s)</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>783535</v>
+      </c>
+      <c r="B24" t="n">
+        <v>783535</v>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>10 de Out de 2025</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Naturalização Ordinária</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Indeferimento</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Não anexou item 2</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Indeferimento</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Nenhum</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Processo indeferido por não atender aos requisitos</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>✅ 75% (3/4)</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>7/8</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>87.5%</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>16/11/2025</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>00:55:49</t>
+        </is>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>Nos termos da legislação, realizadas as diligências necessárias à instrução do presente pedido de Naturalização Ordinária nº 783.535, apresento o presente Relatório Opinativo.
+1. A relação de documentos exigidos pela legislação foi apresentada integralmente conforme documentos juntados ao processo.
+2. De acordo com a documentação apresentada, o(a) naturalizando(a) possui capacidade civil.
+3. Em relação às condições exigidas para a naturalização ordinária, verificou-se que possui 09 anos e 06 ...</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>Não atendeu 0 requisito(s)</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>783511</v>
+      </c>
+      <c r="B25" t="n">
+        <v>783511</v>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>10 de Out de 2025</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Naturalização Ordinária</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Indeferimento</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Indeferimento</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Nenhum</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Processo indeferido por não atender aos requisitos</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>✅ 100% (4/4)</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>8/8</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>16/11/2025</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>00:57:42</t>
+        </is>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>1. Nos termos da legislação, realizadas as diligências necessárias à instrução do presente pedido de Naturalização Ordinária apresento o presente Relatório Opinativo.
+2. A relação de documentos exigidos pela legislação foi apresentada integralmente conforme documentos juntados ao processo.
+3. De acordo com a documentação apresentada a naturalizanda possui capacidade civil.
+4. Em relação às condições exigidas para a naturalização ordinária, verificou-se que possui 5 anos de residência por praz...</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>Não atendeu 0 requisito(s)</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>783468</v>
+      </c>
+      <c r="B26" t="n">
+        <v>783468</v>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>10 de Out de 2025</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Naturalização Ordinária</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Indeferimento</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Indeferimento</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Nenhum</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Processo indeferido por não atender aos requisitos</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>✅ 100% (4/4)</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>8/8</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>16/11/2025</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>01:00:33</t>
+        </is>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>1. Nos termos da legislação, realizadas as diligências necessárias à instrução do presente pedido de Naturalização Ordinária apresento o presente Relatório Opinativo.
+2. A relação de documentos exigidos pela legislação foi apresentada integralmente conforme documentos juntados ao processo.
+3. De acordo com a documentação apresentada, o naturalizando possui capacidade civil.
+4. Em relação às condições exigidas para a naturalização ordinária, verificou-se que possui 06 anos e 07 meses de residê...</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>Não atendeu 0 requisito(s)</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>783271</v>
+      </c>
+      <c r="B27" t="n">
+        <v>783271</v>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>10 de Out de 2025</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Naturalização Ordinária</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Indeferimento</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Art. 65, inciso II da Lei nº 13.445/2017; Art. 65, inciso IV da Lei nº 13.445/2017</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Indeferimento</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Nenhum</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Processo indeferido por não atender aos requisitos</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>❌ NÃO ATENDIDO - Prazo de residência não localizado nos campos do sistema</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>❌ NÃO ATENDIDO - Antecedentes criminais inválidos ou não anexados</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>✅ 100% (4/4)</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>6/8</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>75.0%</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>16/11/2025</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>01:01:47</t>
+        </is>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>Visando à instrução do processo de NATURALIZAÇÃO ORDINÁRIA requerido pelo Naturalizando Emilio Heernandez, foram realizadas as diligências a seguir descritas:
+Nos termos da legislação, realizadas as diligências necessárias à instrução do pedido de naturalização, apresento o presente Parecer:
+Os documentos exigidos pela legislação NÃO FORAM APRESENTADOS INTEGRALMENTE. Restaram faltantes:
+Certidões de Antecedentes Criminais:
+-Do país de origem - devidamente consularizada (na embaixada do Brasi...</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>Não atendeu 2 requisito(s)</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>783115</v>
+      </c>
+      <c r="B28" t="n">
+        <v>783115</v>
+      </c>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>9 de Out de 2025</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Naturalização Ordinária</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Indeferimento</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Indeferimento</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Nenhum</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Processo indeferido por não atender aos requisitos</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>✅ 100% (4/4)</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>8/8</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>16/11/2025</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>01:04:43</t>
+        </is>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Nos termos da legislação, realizadas as diligências necessárias à instrução do presente pedido de naturalização, apresento o presente Relatório Opinativo. 
+O artigo 65 da Lei 13.445/17 estabelece os seguintes requisitos para o deferimento da naturalização ordinária:
+I - ter capacidade civil, segundo a lei brasileira;
+II - ter residência em território nacional, pelo prazo mínimo de 4 (quatro) anos;
+III - comunicar-se em língua portuguesa, consideradas as condições do naturalizando; e
+IV - n...</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>Não atendeu 0 requisito(s)</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>783111</v>
+      </c>
+      <c r="B29" t="n">
+        <v>783111</v>
+      </c>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>9 de Out de 2025</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Naturalização Ordinária</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Indeferimento</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Art. 65, inciso II da Lei nº 13.445/2017; Art. 65, inciso IV da Lei nº 13.445/2017</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Indeferimento</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Nenhum</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Processo indeferido por não atender aos requisitos</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>❌ NÃO ATENDIDO - Prazo de residência não localizado nos campos do sistema</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>❌ NÃO ATENDIDO - Antecedentes criminais inválidos ou não anexados</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>✅ 100% (4/4)</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>6/8</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>75.0%</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>16/11/2025</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>01:07:19</t>
+        </is>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>1. Nos termos da legislação, realizadas as diligências necessárias à instrução do presente pedido de Naturalização Ordinária apresento o presente Relatório Opinativo.
+4. Em relação às condições exigidas para a naturalização ordinária verificou-se que NÃO  residência por prazo indeterminado, imediatamente anteriores ao pedido de naturalização.
+9. Diante do exposto, encaminhe-se ao Ministério da Justiça e Segurança Pública com opinião DESFAVORÁVEL AO DEFERIMENTO em razão do não preenchimento...</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>Não atendeu 2 requisito(s)</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>782969</v>
+      </c>
+      <c r="B30" t="n">
+        <v>782969</v>
+      </c>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>9 de Out de 2025</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Naturalização Ordinária</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Indeferimento</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Indeferimento</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Nenhum</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Processo indeferido por não atender aos requisitos</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>✅ 100% (4/4)</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>8/8</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>16/11/2025</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>01:09:20</t>
+        </is>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>RELATóRIO OPINATIVO/PARECER
+DATA 20/10/2025
+Naturalizando
+MAGDARLIE DJOUANA DUVERT - F0202788:
+1. Nos termos da legislação, realizadas as diligências necessárias à instrução do presente pedido de Naturalização Ordinária apresento o presente Relatório Opinativo/Parecer.
+2. A relação de documentos exigidos pela legislação não foi apresentada integralmente conforme documentos juntados ao processo. Não foi APRESENTADO original de Antecedentes Criminais do país de origem.
+3. De acordo com a docu...</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>Não atendeu 0 requisito(s)</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>782644</v>
+      </c>
+      <c r="B31" t="n">
+        <v>782644</v>
+      </c>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>9 de Out de 2025</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Naturalização Ordinária</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Indeferimento</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Indeferimento</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Nenhum</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>Processo indeferido por não atender aos requisitos</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>✅ 100% (4/4)</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>8/8</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>16/11/2025</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>01:11:48</t>
+        </is>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>Nos termos da legislação, realizadas as diligências necessárias à instrução do presente pedido de Naturalização Ordinária nº 782.644, apresento o presente Relatório Opinativo.
+1. A relação de documentos exigidos pela legislação foi apresentada integralmente conforme documentos juntados ao processo.
+2. De acordo com a documentação apresentada, o(a) naturalizando(a) possui capacidade civil.
+3. Em relação às condições exigidas para a naturalização ordinária, verificou-se que possui 09 anos e 02 ...</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>Não atendeu 0 requisito(s)</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>781978</v>
+      </c>
+      <c r="B32" t="n">
+        <v>781978</v>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>7 de Out de 2025</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Naturalização Ordinária</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Indeferimento</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Indeferimento</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>Nenhum</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Processo indeferido por não atender aos requisitos</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>✅ 100% (4/4)</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>8/8</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>16/11/2025</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>01:13:31</t>
+        </is>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>Nos termos da legislação, realizadas as diligências necessárias à instrução do presente pedido de Naturalização Ordinária nº 781.978, apresento o presente Relatório Opinativo.
+1. A relação de documentos exigidos pela legislação foi apresentada integralmente conforme documentos juntados ao processo.
+2. De acordo com a documentação apresentada, o(a) naturalizando(a) possui capacidade civil.
+3. Em relação às condições exigidas para a naturalização ordinária, verificou-se que possui 04 anos e 05 ...</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>Não atendeu 0 requisito(s)</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>781688</v>
+      </c>
+      <c r="B33" t="n">
+        <v>781688</v>
+      </c>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>6 de Out de 2025</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Naturalização Ordinária</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Indeferimento</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Art. 65, inciso II da Lei nº 13.445/2017; Art. 65, inciso IV da Lei nº 13.445/2017</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Indeferimento</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>Excedeu limite de ausência do país</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>Processo indeferido por não atender aos requisitos</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>❌ NÃO ATENDIDO - Prazo de residência não localizado nos campos do sistema</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>❌ NÃO ATENDIDO - Antecedentes criminais inválidos ou não anexados</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>✅ 100% (4/4)</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>6/8</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>75.0%</t>
+        </is>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>16/11/2025</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>01:15:45</t>
+        </is>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>Assunto: Pedido de Naturalização ORDINÁRIA
+Processo: 781688
+Interessado (Naturalizando): MANEL NOEL
+RELATÓRIO OPINATIVO
+1.	Nos termos da legislação, realizadas as diligências necessárias à instrução do presente pedido de naturalização, apresento o presente Relatório Opinativo.
+2.	A relação de documentos exigidos pela legislação NÃO foi apresentada integralmente, conforme lista de documentos juntados ao processo.
+3.	De acordo com a documentação apresentada, o naturalizando possui capacidade c...</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>Não atendeu 2 requisito(s)</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>781581</v>
+      </c>
+      <c r="B34" t="n">
+        <v>781581</v>
+      </c>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>6 de Out de 2025</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Naturalização Ordinária</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Indeferimento</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Indeferimento</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>Nenhum</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>Processo indeferido por não atender aos requisitos</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>✅ 100% (4/4)</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>8/8</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>16/11/2025</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>01:17:46</t>
+        </is>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>1. Nos termos da legislação, realizadas as diligências necessárias à instrução do presente pedido de Naturalização Ordinária apresento o presente Relatório Opinativo.
+2. A relação de documentos exigidos pela legislação, foi apresentada integralmente conforme documentos juntados ao processo.
+3. De acordo com a documentação apresentada, o naturalizando possui capacidade civil.
+4. Em relação às condições exigidas para a naturalização ordinária, verificou-se que possui 07 anos e 07 meses de resid...</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>Não atendeu 0 requisito(s)</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>781447</v>
+      </c>
+      <c r="B35" t="n">
+        <v>781447</v>
+      </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>6 de Out de 2025</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Naturalização Ordinária</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Indeferimento</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Não anexou item 2</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Indeferimento</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>Nenhum</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>Processo indeferido por não atender aos requisitos</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>✅ 75% (3/4)</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>7/8</t>
+        </is>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>87.5%</t>
+        </is>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>16/11/2025</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>01:21:02</t>
+        </is>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>1. Nos termos da legislação, realizadas as diligências necessárias à instrução do presente pedido de Naturalização Ordinária apresento o presente Relatório Opinativo.
+2. A relação de documentos exigidos pela legislação, foi apresentada integralmente conforme documentos juntados ao processo.
+3. De acordo com a documentação apresentada, o naturalizando possui capacidade civil.
+4. Em relação às condições exigidas para a naturalização ordinária verificou-se que possui 28 anos e 01 mês de residênc...</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>Não atendeu 0 requisito(s)</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>781056</v>
+      </c>
+      <c r="B36" t="n">
+        <v>781056</v>
+      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>4 de Out de 2025</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Naturalização Ordinária</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Indeferimento</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Art. 65, inciso II da Lei nº 13.445/2017</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Indeferimento</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>Nenhum</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Processo indeferido por não atender aos requisitos</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>❌ NÃO ATENDIDO - Tempo insuficiente: 1.00 anos &lt; 3.95 anos</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>✅ 100% (4/4)</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>7/8</t>
+        </is>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>87.5%</t>
+        </is>
+      </c>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>16/11/2025</t>
+        </is>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>01:23:05</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>1. Nos termos da legislação, realizadas as diligências necessárias à instrução do presente pedido de Naturalização Ordinária apresento o presente Relatório Opinativo.
+2. A relação de documentos exigidos pela legislação, foi apresentada integralmente conforme documentos juntados ao processo.
+3. De acordo com a documentação apresentada, o naturalizando possui capacidade civil.
+4. Em relação às condições exigidas para a naturalização ordinária, verificou-se que possui 1 ano de residência por pra...</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>Não atendeu 1 requisito(s)</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>780840</v>
+      </c>
+      <c r="B37" t="n">
+        <v>780840</v>
+      </c>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>3 de Out de 2025</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Naturalização Ordinária</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Indeferimento</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Art. 65, inciso II da Lei nº 13.445/2017; Não anexou item 2</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Indeferimento</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>Nenhum</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>Processo indeferido por não atender aos requisitos</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>❌ NÃO ATENDIDO - Prazo de residência não localizado nos campos do sistema</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>✅ 75% (3/4)</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>6/8</t>
+        </is>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>75.0%</t>
+        </is>
+      </c>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>16/11/2025</t>
+        </is>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>01:24:43</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>1. Nos termos da legislação, realizadas as diligências necessárias à instrução do presente pedido de Naturalização Ordinária apresento o presente Relatório Opinativo.
+2. A relação de documentos exigidos pela legislação, não foi apresentada integralmente conforme documentos juntados ao processo.
+O Residente não possui documento que comprove residência por prazo indeterminado, o RNM B113409-Z é temporário.
+9. Diante do exposto, encaminhe-se ao Ministério da Justiça e Segurança Pública com opin...</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>Não atendeu 1 requisito(s)</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>780703</v>
+      </c>
+      <c r="B38" t="n">
+        <v>780703</v>
+      </c>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>3 de Out de 2025</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Naturalização Ordinária</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Indeferimento</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Art. 65, inciso II da Lei nº 13.445/2017</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Indeferimento</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>Nenhum</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>Processo indeferido por não atender aos requisitos</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>❌ NÃO ATENDIDO - Tempo insuficiente: 1.00 anos &lt; 3.95 anos</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>✅ 100% (4/4)</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>7/8</t>
+        </is>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>87.5%</t>
+        </is>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>16/11/2025</t>
+        </is>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>01:26:56</t>
+        </is>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>1. Nos termos da legislação, realizadas as diligências necessárias à instrução do presente pedido de Naturalização Ordinária apresento o presente Relatório Opinativo.
+2. A relação de documentos exigidos pela legislação, foi apresentada integralmente conforme documentos juntados ao processo.
+3. De acordo com a documentação apresentada, o naturalizando possui capacidade civil.
+4. Em relação às condições exigidas para a naturalização ordinária, verificou-se que possui 1 ano de residência por pra...</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>Não atendeu 1 requisito(s)</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>780604</v>
+      </c>
+      <c r="B39" t="n">
+        <v>780604</v>
+      </c>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2 de Out de 2025</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Naturalização Ordinária</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Indeferimento</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Art. 65, inciso II da Lei nº 13.445/2017</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Indeferimento</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>Nenhum</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>Processo indeferido por não atender aos requisitos</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>❌ NÃO ATENDIDO - Prazo de residência não localizado nos campos do sistema</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>✅ 100% (4/4)</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>7/8</t>
+        </is>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>87.5%</t>
+        </is>
+      </c>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>16/11/2025</t>
+        </is>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>01:28:32</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>Nos termos da legislação, realizadas as diligências necessárias à instrução do presente pedido de Naturalização Ordinária apresento o presente Relatório Opinativo.
+Não foi identificado início de falsidade documental ou contradição na documentação apresentada.
+Para confirmação do tempo de residência por prazo indeterminado foram juntados ao processo:
+Certidão de Movimentos Migratórios, na qual não se verifica ausência do país por prazo supeior a 12 meses nos útlimos 4 anos ou 90 dias nos últim...</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>Não atendeu 1 requisito(s)</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>780449</v>
+      </c>
+      <c r="B40" t="n">
+        <v>780449</v>
+      </c>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2 de Out de 2025</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Naturalização Ordinária</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Indeferimento</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Art. 65, inciso II da Lei nº 13.445/2017; Art. 65, inciso III da Lei nº 13.445/2017</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Indeferimento</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>Nenhum</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>Processo indeferido por não atender aos requisitos</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>❌ NÃO ATENDIDO - Prazo de residência não localizado nos campos do sistema</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>❌ NÃO ATENDIDO - Não anexou item 13 - Comprovante de comunicação em português</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>✅ 100% (4/4)</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>6/8</t>
+        </is>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>75.0%</t>
+        </is>
+      </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>16/11/2025</t>
+        </is>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>01:30:09</t>
+        </is>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>Assunto: Pedido de Naturalização ORDINÁRIA
+Processo: 780449
+Interessado (Naturalizando): ANDRES ENRIQUE LAI REYES
+RELATÓRIO OPINATIVO
+1.	Nos termos da legislação, realizadas as diligências necessárias à instrução do presente pedido de naturalização, apresento o presente Relatório Opinativo.
+2.	A relação de documentos exigidos pela legislação NÃO foi apresentada integralmente, conforme lista de documentos juntados ao processo.
+3.	De acordo com a documentação apresentada, o naturalizando possu...</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>Não atendeu 2 requisito(s)</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>780140</v>
+      </c>
+      <c r="B41" t="n">
+        <v>780140</v>
+      </c>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1 de Out de 2025</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Naturalização Ordinária</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Indeferimento</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Art. 65, inciso II da Lei nº 13.445/2017</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Indeferimento</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>Nenhum</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>Processo indeferido por não atender aos requisitos</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>❌ NÃO ATENDIDO - Prazo de residência não localizado nos campos do sistema</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>✅ 100% (4/4)</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>7/8</t>
+        </is>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>87.5%</t>
+        </is>
+      </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>16/11/2025</t>
+        </is>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>01:31:22</t>
+        </is>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>ASSUNTO: Solicitação de Naturalização Ordinária
+CÓDIGO: 780.140
+PROTOCOLO: 235881.0660866/2025
+INTERESSADO(A): Carlos Alberto Caceres Gonzalez
+PAÍS DE NACIONALIDADE: Cuba 
+RNM: G377000-X
+Visando a instrução do processo de NATURALIZAÇÃO ORDINÁRIA requerido pelo naturalizando acima identificado, foram realizadas as diligências descritas a seguir:
+1.	Preliminarmente, não foi identificado indício de falsidade documental ou contradição na documentação apresentada virtualmente.
+2.	Para confirmação...</t>
+        </is>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>Não atendeu 1 requisito(s)</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>780066</v>
+      </c>
+      <c r="B42" t="n">
+        <v>780066</v>
+      </c>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1 de Out de 2025</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Naturalização Ordinária</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Indeferimento</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Indeferimento</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>Nenhum</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>Processo indeferido por não atender aos requisitos</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>✅ 100% (4/4)</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>8/8</t>
+        </is>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>16/11/2025</t>
+        </is>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>01:33:01</t>
+        </is>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>RELATóRIO OPINATIVO/PARECER
+DATA 22/10/2025
+Naturalizando
+FALLOU LEYE - G408211D:
+1. Nos termos da legislação, realizadas as diligências necessárias à instrução do presente pedido de Naturalização Ordinária apresento o presente Relatório Opinativo/Parecer.
+2. A relação de documentos exigidos pela legislação não foi apresentada integralmente conforme documentos juntados ao processo. Apresentou Certidão de Antecedentes Criminais do país de origem com data anterior a última entrada no Brasil.
+...</t>
+        </is>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>Não atendeu 0 requisito(s)</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>779855</v>
+      </c>
+      <c r="B43" t="n">
+        <v>779855</v>
+      </c>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1 de Out de 2025</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Naturalização Ordinária</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Indeferimento</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Art. 65, inciso II da Lei nº 13.445/2017</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Indeferimento</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>Nenhum</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>Processo indeferido por não atender aos requisitos</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>❌ NÃO ATENDIDO - Prazo de residência não localizado nos campos do sistema</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>✅ 100% (4/4)</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>7/8</t>
+        </is>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>87.5%</t>
+        </is>
+      </c>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>16/11/2025</t>
+        </is>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>01:35:23</t>
+        </is>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>Assunto: Pedido de Naturalização ORDINÁRIA
+Processo: 779855
+Interessado (Naturalizando): DENEL ALMONORD
+RELATÓRIO OPINATIVO
+1.	Nos termos da legislação, realizadas as diligências necessárias à instrução do presente pedido de naturalização, apresento o presente Relatório Opinativo.
+2.	A relação de documentos exigidos pela legislação foi apresentada integralmente, conforme lista de documentos juntados ao processo.
+3.	De acordo com a documentação apresentada, o naturalizando possui capacidade c...</t>
+        </is>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>Não atendeu 1 requisito(s)</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>779821</v>
+      </c>
+      <c r="B44" t="n">
+        <v>779821</v>
+      </c>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1 de Out de 2025</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Naturalização Ordinária</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Indeferimento</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Art. 65, inciso II da Lei nº 13.445/2017; Art. 65, inciso III da Lei nº 13.445/2017</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Indeferimento</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>Nenhum</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>Processo indeferido por não atender aos requisitos</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>❌ NÃO ATENDIDO - Prazo de residência não localizado nos campos do sistema</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>❌ NÃO ATENDIDO - Não anexou item 13 - Comprovante de comunicação em português</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>✅ 100% (4/4)</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>6/8</t>
+        </is>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>75.0%</t>
+        </is>
+      </c>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>16/11/2025</t>
+        </is>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>01:37:45</t>
+        </is>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>ASSUNTO: SOLICITAÇÃO DE NATURALIZAÇÃO ORDINÁRIA 
+CÓDIGO: 779.821
+PROTOCOLO: 235881.0660573/2025
+INTERESSADO: IVO ANTONIO DJO
+PAÍS DE NACIONALIDADE: GUINÉ-BISSAU
+RNM: G234256-7
+Visando a instrução do processo de NATURALIZAÇÃO ORDINÁRIA requerido pelo naturalizando acima identificado, foram realizadas as diligências descritas a seguir:
+1.	Preliminarmente, não foi identificado indício de falsidade documental ou contradição na documentação apresentada virtualmente. Porém, após realizar análises na...</t>
+        </is>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>Não atendeu 2 requisito(s)</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>779599</v>
+      </c>
+      <c r="B45" t="n">
+        <v>779599</v>
+      </c>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>30 de Set de 2025</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Naturalização Ordinária</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Indeferimento</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Art. 65, inciso II da Lei nº 13.445/2017</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Indeferimento</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>Nenhum</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>Processo indeferido por não atender aos requisitos</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>❌ NÃO ATENDIDO - Prazo de residência não localizado nos campos do sistema</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>✅ 100% (4/4)</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>7/8</t>
+        </is>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>87.5%</t>
+        </is>
+      </c>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>16/11/2025</t>
+        </is>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>01:39:51</t>
+        </is>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>Assunto: Pedido de Naturalização ORDINÁRIA
+Processo: 779599
+Interessado (Naturalizando): FANNY ROXANA MAMANI MATAMET
+RELATÓRIO OPINATIVO
+1.	Nos termos da legislação, realizadas as diligências necessárias à instrução do presente pedido de naturalização, apresento o presente Relatório Opinativo.
+2.	A relação de documentos exigidos pela legislação foi apresentada integralmente, conforme lista de documentos juntados ao processo.
+3.	De acordo com a documentação apresentada, a naturalizanda possui...</t>
+        </is>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>Não atendeu 1 requisito(s)</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>779002</v>
+      </c>
+      <c r="B46" t="n">
+        <v>779002</v>
+      </c>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>29 de Set de 2025</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Naturalização Ordinária</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Indeferimento</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Não anexou item 2</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Indeferimento</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>Nenhum</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>Processo indeferido por não atender aos requisitos</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>✅ 75% (3/4)</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>7/8</t>
+        </is>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>87.5%</t>
+        </is>
+      </c>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>16/11/2025</t>
+        </is>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>01:42:01</t>
+        </is>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>1. Nos termos da legislação, realizadas as diligências necessárias à instrução do presente pedido de Naturalização Ordinária apresento o presente Relatório Opinativo.
+2. A relação de documentos exigidos pela legislação,  foi apresentada integralmente conforme documentos juntados ao processo.
+3. De acordo com a documentação apresentada, o naturalizando possui capacidade civil.
+4. Em relação às condições exigidas para a naturalização ordinária, verificou-se que possui 04 anos de residência por ...</t>
+        </is>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>Não atendeu 0 requisito(s)</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>778977</v>
+      </c>
+      <c r="B47" t="n">
+        <v>778977</v>
+      </c>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>29 de Set de 2025</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Naturalização Ordinária</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Indeferimento</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Art. 65, inciso II da Lei nº 13.445/2017</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Indeferimento</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>Nenhum</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>Processo indeferido por não atender aos requisitos</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>❌ NÃO ATENDIDO - Prazo de residência não localizado nos campos do sistema</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>✅ 100% (4/4)</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>7/8</t>
+        </is>
+      </c>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>87.5%</t>
+        </is>
+      </c>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>16/11/2025</t>
+        </is>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>01:43:41</t>
+        </is>
+      </c>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>1. Nos termos da legislação, realizadas as diligências necessárias à instrução do presente pedido de Naturalização Ordinária apresento o presente Relatório Opinativo.
+2. A relação de documentos exigidos pela legislação, foi apresentada integralmente conforme documentos juntados ao processo.
+3. De acordo com a documentação apresentada, o naturalizando possui capacidade civil.
+4. Em relação às condições exigidas para a naturalização ordinária verificou-se que o interessado foi registrado em 28/...</t>
+        </is>
+      </c>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>Não atendeu 1 requisito(s)</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>778922</v>
+      </c>
+      <c r="B48" t="n">
+        <v>778922</v>
+      </c>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>29 de Set de 2025</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Naturalização Ordinária</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Indeferimento</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Art. 65, inciso II da Lei nº 13.445/2017; Art. 65, inciso III da Lei nº 13.445/2017</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Indeferimento</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>Nenhum</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>Processo indeferido por não atender aos requisitos</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>❌ NÃO ATENDIDO - Prazo de residência não localizado nos campos do sistema</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>❌ NÃO ATENDIDO - Não anexou item 13 - Comprovante de comunicação em português</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>✅ 100% (4/4)</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>6/8</t>
+        </is>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>75.0%</t>
+        </is>
+      </c>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>16/11/2025</t>
+        </is>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>01:45:13</t>
+        </is>
+      </c>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>1. Nos termos da legislação, realizadas as diligências necessárias à instrução do presente pedido de Naturalização Ordinária apresento o presente Relatório Opinativo.
+2. A relação de documentos exigidos pela legislação, não foi apresentada integralmente conforme documentos juntados ao processo.
+3. De acordo com a documentação apresentada, o naturalizando possui capacidade civil.
+4. Em relação às condições exigidas para a naturalização ordinária verificou-se que possui 2,3 anosde residência po...</t>
+        </is>
+      </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>Não atendeu 2 requisito(s)</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>778869</v>
+      </c>
+      <c r="B49" t="n">
+        <v>778869</v>
+      </c>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>29 de Set de 2025</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Naturalização Ordinária</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Indeferimento</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Art. 65, inciso II da Lei nº 13.445/2017</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Indeferimento</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>Nenhum</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>Processo indeferido por não atender aos requisitos</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>❌ NÃO ATENDIDO - Prazo de residência não localizado nos campos do sistema</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>✅ 100% (4/4)</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>7/8</t>
+        </is>
+      </c>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>87.5%</t>
+        </is>
+      </c>
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>16/11/2025</t>
+        </is>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>01:47:02</t>
+        </is>
+      </c>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>1. Nos termos da legislação, realizadas as diligências necessárias à instrução do presente pedido de Naturalização Ordinária apresento o presente Relatório Opinativo.
+2. A relação de documentos exigidos pela legislação, não foi apresentada integralmente conforme documentos juntados ao processo.
+3. De acordo com a documentação apresentada, o naturalizando possui capacidade civil.
+4. Em relação às condições exigidas para a naturalização ordinária verificou-se que possui 2,3 anos como residente ...</t>
+        </is>
+      </c>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>Não atendeu 1 requisito(s)</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>778376</v>
+      </c>
+      <c r="B50" t="n">
+        <v>778376</v>
+      </c>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>26 de Set de 2025</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Naturalização Ordinária</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Indeferimento</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Art. 65, inciso II da Lei nº 13.445/2017</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Indeferimento</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>Nenhum</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>Processo indeferido por não atender aos requisitos</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>❌ NÃO ATENDIDO - Prazo de residência não localizado nos campos do sistema</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>✅ 100% (4/4)</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>7/8</t>
+        </is>
+      </c>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>87.5%</t>
+        </is>
+      </c>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>16/11/2025</t>
+        </is>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>01:51:04</t>
+        </is>
+      </c>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>1. Nos termos da legislação, realizadas as diligências necessárias à instrução do presente pedido de Naturalização Ordinária apresento o presente Relatório Opinativo.
+2. A relação de documentos exigidos pela legislação foi apresentada integralmente conforme documentos juntados ao processo.
+3. De acordo com a documentação apresentada, o naturalizando possui capacidade civil.
+4. Em relação às condições exigidas para a naturalização ordinária, verificou-se que possui 1 anos, 2 meses de residênci...</t>
+        </is>
+      </c>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>Não atendeu 1 requisito(s)</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>778253</v>
+      </c>
+      <c r="B51" t="n">
+        <v>778253</v>
+      </c>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>26 de Set de 2025</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Naturalização Ordinária</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Indeferimento</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Art. 65, inciso III da Lei nº 13.445/2017</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Indeferimento</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>Nenhum</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>Processo indeferido por não atender aos requisitos</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>❌ NÃO ATENDIDO - Não anexou item 13 - Comprovante de comunicação em português</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>✅ 100% (4/4)</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>7/8</t>
+        </is>
+      </c>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>87.5%</t>
+        </is>
+      </c>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>16/11/2025</t>
+        </is>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>01:52:35</t>
+        </is>
+      </c>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>Nos termos da legislação, realizadas as diligências necessárias à instrução do presente pedido de Naturalização Ordinária nº 778.253 , apresento o presente Relatório Opinativo.
+1. A relação de documentos exigidos pela legislação foi apresentada integralmente conforme documentos juntados ao processo.
+2. De acordo com a documentação apresentada, o(a) naturalizando(a) possui capacidade civil.
+3. Em relação às condições exigidas para a naturalização ordinária, verificou-se que possui 05 anos e 01...</t>
+        </is>
+      </c>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>Não atendeu 1 requisito(s)</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>778150</v>
+      </c>
+      <c r="B52" t="n">
+        <v>778150</v>
+      </c>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>26 de Set de 2025</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Naturalização Ordinária</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Indeferimento</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Art. 65, inciso II da Lei nº 13.445/2017</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Indeferimento</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>Nenhum</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>Processo indeferido por não atender aos requisitos</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>❌ NÃO ATENDIDO - Prazo de residência não localizado nos campos do sistema</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>✅ 100% (4/4)</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>7/8</t>
+        </is>
+      </c>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>87.5%</t>
+        </is>
+      </c>
+      <c r="R52" t="inlineStr">
+        <is>
+          <t>16/11/2025</t>
+        </is>
+      </c>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>01:55:13</t>
+        </is>
+      </c>
+      <c r="T52" t="inlineStr">
+        <is>
+          <t>Nos termos da legislação, realizadas as diligências necessárias à instrução do pedido de naturalização, apresento o presente Parecer.
+A relação de documentos exigidos pela legislação NÃO foi apresentada integralmente. Ficaram faltantes:
+- Antecedentes criminais emitido pelo país de origem. (anexado documento cujo a Policia Civil atesta que a naturalizanda não possuí condenação).
+- Antecedentes criminais emitido pela Justiça Estadual (3º ofício).
+- Antecedentes criminais emitido pelo Cartório Cri...</t>
+        </is>
+      </c>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>Não atendeu 1 requisito(s)</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>777915</v>
+      </c>
+      <c r="B53" t="n">
+        <v>777915</v>
+      </c>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>25 de Set de 2025</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Naturalização Ordinária</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Indeferimento</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Art. 65, inciso II da Lei nº 13.445/2017</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Indeferimento</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>Nenhum</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>Processo indeferido por não atender aos requisitos</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>❌ NÃO ATENDIDO - Prazo de residência não localizado nos campos do sistema</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>✅ 100% (4/4)</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>7/8</t>
+        </is>
+      </c>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>87.5%</t>
+        </is>
+      </c>
+      <c r="R53" t="inlineStr">
+        <is>
+          <t>16/11/2025</t>
+        </is>
+      </c>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>01:56:25</t>
+        </is>
+      </c>
+      <c r="T53" t="inlineStr">
+        <is>
+          <t>1. Nos termos da legislação, realizadas as diligências necessárias à instrução do presente pedido de Naturalização Ordinária apresento o presente Relatório Opinativo.
+2. A relação de documentos exigidos pela legislação foi apresentada integralmente conforme documentos juntados ao processo.
+3. De acordo com a documentação apresentada, o naturalizando possui capacidade civil.
+4. Em relação às condições exigidas para a naturalização ordinária, verificou-se que possui 1 anos, 1 mes de residência ...</t>
+        </is>
+      </c>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>Não atendeu 1 requisito(s)</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>777380</v>
+      </c>
+      <c r="B54" t="n">
+        <v>777380</v>
+      </c>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>24 de Set de 2025</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Naturalização Ordinária</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Indeferimento</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Art. 65, inciso II da Lei nº 13.445/2017</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Indeferimento</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>Nenhum</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>Processo indeferido por não atender aos requisitos</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>❌ NÃO ATENDIDO - Tempo insuficiente: 1.00 anos &lt; 3.95 anos</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>✅ 100% (4/4)</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>7/8</t>
+        </is>
+      </c>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>87.5%</t>
+        </is>
+      </c>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t>16/11/2025</t>
+        </is>
+      </c>
+      <c r="S54" t="inlineStr">
+        <is>
+          <t>01:59:10</t>
+        </is>
+      </c>
+      <c r="T54" t="inlineStr">
+        <is>
+          <t>1. Nos termos da legislação, realizadas as diligências necessárias à instrução do presente pedido de Naturalização Ordinária apresento o presente Relatório Opinativo.
+2. A relação de documentos exigidos pela legislação, foi apresentada integralmente conforme documentos juntados ao processo.
+3. De acordo com a documentação apresentada, o naturalizando possui capacidade civil.
+4. Em relação às condições exigidas para a naturalização ordinária, verificou-se que possui 1 ano e meses de residência...</t>
+        </is>
+      </c>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>Não atendeu 1 requisito(s)</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>777355</v>
+      </c>
+      <c r="B55" t="n">
+        <v>777355</v>
+      </c>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>24 de Set de 2025</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Naturalização Ordinária</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Indeferimento</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Art. 65, inciso II da Lei nº 13.445/2017; Art. 65, inciso IV da Lei nº 13.445/2017; Não anexou item 2</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Indeferimento</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>Nenhum</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>Processo indeferido por não atender aos requisitos</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>❌ NÃO ATENDIDO - Prazo de residência não localizado nos campos do sistema</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>❌ NÃO ATENDIDO - Antecedentes criminais inválidos ou não anexados</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>✅ 75% (3/4)</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>5/8</t>
+        </is>
+      </c>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>62.5%</t>
+        </is>
+      </c>
+      <c r="R55" t="inlineStr">
+        <is>
+          <t>16/11/2025</t>
+        </is>
+      </c>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>02:00:20</t>
+        </is>
+      </c>
+      <c r="T55" t="inlineStr">
+        <is>
+          <t>Assunto: Pedido de Naturalização ORDINÁRIA
+Processo / Protocolo: 777.355
+Interessado (Naturalizando): ASIEL AGUILA ALVAREZ
+INFORMAÇÃO CONSOLIDADA
+Visando à instrução do processo de NATURALIZAÇÃO ORDINÁRIA requerida pelo
+Naturalizando acima identificado, foram realizadas as diligências a seguir descritas:
+1. Não foi identificado indício de falsidade documental ou contradição na documentação apresentada. O requerente se tornou residente permanente com emissão de CRNM no dia 15/06/2021, demonstra...</t>
+        </is>
+      </c>
+      <c r="U55" t="inlineStr">
+        <is>
+          <t>Não atendeu 2 requisito(s)</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>776714</v>
+      </c>
+      <c r="B56" t="n">
+        <v>776714</v>
+      </c>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>23 de Set de 2025</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Naturalização Ordinária</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Indeferimento</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Art. 65, inciso II da Lei nº 13.445/2017</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Indeferimento</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>Nenhum</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>Processo indeferido por não atender aos requisitos</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>❌ NÃO ATENDIDO - Prazo de residência não localizado nos campos do sistema</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>✅ 100% (4/4)</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>7/8</t>
+        </is>
+      </c>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>87.5%</t>
+        </is>
+      </c>
+      <c r="R56" t="inlineStr">
+        <is>
+          <t>16/11/2025</t>
+        </is>
+      </c>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>02:01:45</t>
+        </is>
+      </c>
+      <c r="T56" t="inlineStr">
+        <is>
+          <t>1. Nos termos da legislação, realizadas as diligências necessárias à instrução do presente pedido de Naturalização Ordinária apresento o presente Relatório Opinativo.
+2. A relação de documentos exigidos pela legislação, (não) foi apresentada integralmente conforme documentos juntados ao processo.
+3. De acordo com a documentação apresentada, o naturalizando (possui/não possui) capacidade civil.
+4. Em relação às condições exigidas para a naturalização ordinária verificou-se que possui XXXXX ano...</t>
+        </is>
+      </c>
+      <c r="U56" t="inlineStr">
+        <is>
+          <t>Não atendeu 1 requisito(s)</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>776615</v>
+      </c>
+      <c r="B57" t="n">
+        <v>776615</v>
+      </c>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>22 de Set de 2025</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Naturalização Ordinária</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Indeferimento</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Art. 65, inciso II da Lei nº 13.445/2017; Não anexou item 4</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Indeferimento</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>Nenhum</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>Processo indeferido por não atender aos requisitos</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>❌ NÃO ATENDIDO - Prazo de residência não localizado nos campos do sistema</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>✅ 75% (3/4)</t>
+        </is>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>6/8</t>
+        </is>
+      </c>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>75.0%</t>
+        </is>
+      </c>
+      <c r="R57" t="inlineStr">
+        <is>
+          <t>16/11/2025</t>
+        </is>
+      </c>
+      <c r="S57" t="inlineStr">
+        <is>
+          <t>02:03:22</t>
+        </is>
+      </c>
+      <c r="T57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Nos termos da legislação, realizadas as diligências necessárias à instrução do presente pedido de naturalização, apresento o presente Relatório Opinativo. 
+O artigo 65 da Lei 13.445/17 estabelece os seguintes requisitos para o deferimento da naturalização ordinária:
+I - ter capacidade civil, segundo a lei brasileira;
+II - ter residência em território nacional, pelo prazo mínimo de 4 (quatro) anos;
+III - comunicar-se em língua portuguesa, consideradas as condições do naturalizando; e
+IV -...</t>
+        </is>
+      </c>
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>Não atendeu 1 requisito(s)</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>776103</v>
+      </c>
+      <c r="B58" t="n">
+        <v>776103</v>
+      </c>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>21 de Set de 2025</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Naturalização Ordinária</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Indeferimento</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Art. 65, inciso II da Lei nº 13.445/2017</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Deferimento</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>Nenhum</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>Processo indeferido por não atender aos requisitos</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>❌ NÃO ATENDIDO - Prazo de residência não localizado nos campos do sistema</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>✅ 100% (4/4)</t>
+        </is>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>7/8</t>
+        </is>
+      </c>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>87.5%</t>
+        </is>
+      </c>
+      <c r="R58" t="inlineStr">
+        <is>
+          <t>16/11/2025</t>
+        </is>
+      </c>
+      <c r="S58" t="inlineStr">
+        <is>
+          <t>02:05:14</t>
+        </is>
+      </c>
+      <c r="T58" t="inlineStr">
+        <is>
+          <t>1. Nos termos da legislação, realizadas as diligências necessárias à instrução do presente pedido de Naturalização Ordinária apresento o presente Relatório Opinativo.
+2. A relação de documentos exigidos pela legislação, não foi apresentada integralmente conforme documentos juntados ao processo.
+3. Conforme informações contidas no site do Ministério das Relações Exteriores; para surtir efeitos no Brasil, documentos emitidos por países estrangeiros que não estão na lista da Convenção da Apostila...</t>
+        </is>
+      </c>
+      <c r="U58" t="inlineStr">
+        <is>
+          <t>Não atendeu 1 requisito(s)</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>775967</v>
+      </c>
+      <c r="B59" t="n">
+        <v>775967</v>
+      </c>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>21 de Set de 2025</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Naturalização Ordinária</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Indeferimento</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Art. 65, inciso II da Lei nº 13.445/2017</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Indeferimento</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>Nenhum</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>Processo indeferido por não atender aos requisitos</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>❌ NÃO ATENDIDO - Prazo de residência não localizado nos campos do sistema</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>✅ 100% (4/4)</t>
+        </is>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>7/8</t>
+        </is>
+      </c>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>87.5%</t>
+        </is>
+      </c>
+      <c r="R59" t="inlineStr">
+        <is>
+          <t>16/11/2025</t>
+        </is>
+      </c>
+      <c r="S59" t="inlineStr">
+        <is>
+          <t>02:09:05</t>
+        </is>
+      </c>
+      <c r="T59" t="inlineStr">
+        <is>
+          <t>Visando à instrução do processo de NATURALIZAÇÃO ORDINÁRIA requerido pelo Naturalizando ELENA TURINETS, foram realizadas as diligências a seguir descritas:
+1. Não foi identificado início de falsidade documental ou contradição na documentação apresentada.
+2. Para confirmação do tempo de residência por prazo indeterminado foram juntados ao processo:
+2.1. Certidão de Movimentos Migratórios.
+2.1.1. A requerente NÃO se ausentou do território nacional em viagens internacionais desde a sua entrada em ...</t>
+        </is>
+      </c>
+      <c r="U59" t="inlineStr">
+        <is>
+          <t>Não atendeu 1 requisito(s)</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>775417</v>
+      </c>
+      <c r="B60" t="n">
+        <v>775417</v>
+      </c>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>19 de Set de 2025</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Naturalização Ordinária</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Indeferimento</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Art. 65, inciso II da Lei nº 13.445/2017; Não anexou item 2</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Indeferimento</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>Excedeu limite de ausência do país</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>Processo indeferido por não atender aos requisitos</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>❌ NÃO ATENDIDO - Prazo de residência não localizado nos campos do sistema</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>✅ 75% (3/4)</t>
+        </is>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>6/8</t>
+        </is>
+      </c>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>75.0%</t>
+        </is>
+      </c>
+      <c r="R60" t="inlineStr">
+        <is>
+          <t>16/11/2025</t>
+        </is>
+      </c>
+      <c r="S60" t="inlineStr">
+        <is>
+          <t>02:10:37</t>
+        </is>
+      </c>
+      <c r="T60" t="inlineStr">
+        <is>
+          <t>Visando à instrução do processo de NATURALIZAÇÃO ORDINÁRIA requerido pelo senhor RUI MIGUEL CANINHAS BELCHIOR DA SILVA, foram realizadas as diligências a seguir descritas:
+1. Não foi identificado início de falsidade documental ou contradição na documentação apresentada. 
+2. Para confirmação do tempo de residência por prazo indeterminado foram juntados ao processo:
+2.1. Certidão de Movimentos Migratórios
+2.1.1. O requerente NÃO se ausentou do território nacional em viagens internacionais desde a...</t>
+        </is>
+      </c>
+      <c r="U60" t="inlineStr">
+        <is>
+          <t>Não atendeu 1 requisito(s)</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>775332</v>
+      </c>
+      <c r="B61" t="n">
+        <v>775332</v>
+      </c>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>19 de Set de 2025</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Naturalização Ordinária</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Indeferimento</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Art. 65, inciso II da Lei nº 13.445/2017</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Indeferimento</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>Nenhum</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>Processo indeferido por não atender aos requisitos</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>❌ NÃO ATENDIDO - Prazo de residência não localizado nos campos do sistema</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>✅ 100% (4/4)</t>
+        </is>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>7/8</t>
+        </is>
+      </c>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>87.5%</t>
+        </is>
+      </c>
+      <c r="R61" t="inlineStr">
+        <is>
+          <t>16/11/2025</t>
+        </is>
+      </c>
+      <c r="S61" t="inlineStr">
+        <is>
+          <t>02:12:14</t>
+        </is>
+      </c>
+      <c r="T61" t="inlineStr">
+        <is>
+          <t>Assunto: Pedido de Naturalização ORDINÁRIA
+Processo: 775332
+Interessado (Naturalizando): MAKENLOVE DORIVAL
+RELATÓRIO OPINATIVO
+1.	Nos termos da legislação, realizadas as diligências necessárias à instrução do presente pedido de naturalização, apresento o presente Relatório Opinativo.
+2.	A relação de documentos exigidos pela legislação NÃO foi apresentada integralmente, conforme lista de documentos juntados ao processo.
+3.	De acordo com a documentação apresentada, o naturalizando possui capac...</t>
+        </is>
+      </c>
+      <c r="U61" t="inlineStr">
+        <is>
+          <t>Não atendeu 1 requisito(s)</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>775194</v>
+      </c>
+      <c r="B62" t="n">
+        <v>775194</v>
+      </c>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>18 de Set de 2025</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Naturalização Ordinária</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Indeferimento</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Art. 65, inciso II da Lei nº 13.445/2017; Art. 65, inciso III da Lei nº 13.445/2017; Art. 65, inciso IV da Lei nº 13.445/2017; Não anexou item 4; Não anexou item 3; Não anexou item 2</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Indeferimento</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>Nenhum</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>Processo indeferido por não atender aos requisitos</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>❌ NÃO ATENDIDO - Prazo de residência não localizado nos campos do sistema</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>❌ NÃO ATENDIDO - Não anexou item 13 - Comprovante de comunicação em português</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>❌ NÃO ATENDIDO - Antecedentes criminais inválidos ou não anexados</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>✅ 25% (1/4)</t>
+        </is>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>2/8</t>
+        </is>
+      </c>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>25.0%</t>
+        </is>
+      </c>
+      <c r="R62" t="inlineStr">
+        <is>
+          <t>16/11/2025</t>
+        </is>
+      </c>
+      <c r="S62" t="inlineStr">
+        <is>
+          <t>02:13:32</t>
+        </is>
+      </c>
+      <c r="T62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1. Nos termos da legislação, realizadas as diligências necessárias à instrução do presente pedido de Naturalização Ordinária apresento o presente Relatório Opinativo.
+2. Os documentos exigidos pela legislação não foram apresentados, diante do exposto, encaminhe-se ao Ministério da Justiça e Segurança Pública com opinião pelo ARQUIVAMENTO do processo, com base no art. 7º, § 2º da Portaria 623/2020.
+</t>
+        </is>
+      </c>
+      <c r="U62" t="inlineStr">
+        <is>
+          <t>Não atendeu 3 requisito(s)</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>790357</v>
+      </c>
+      <c r="B63" t="n">
+        <v>790357</v>
+      </c>
+      <c r="C63" t="inlineStr"/>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>23 de Out de 2025</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Naturalização Ordinária</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Indeferimento</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Art. 65, inciso II da Lei nº 13.445/2017; Art. 65, inciso IV da Lei nº 13.445/2017; Não anexou item 8; Não anexou item 3; Não anexou item 2</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Indeferimento</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>Nenhum</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>Processo indeferido por não atender aos requisitos</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>❌ NÃO ATENDIDO - Prazo de residência não localizado nos campos do sistema</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>❌ NÃO ATENDIDO - Antecedentes criminais inválidos ou não anexados</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>✅ 25% (1/4)</t>
+        </is>
+      </c>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>3/8</t>
+        </is>
+      </c>
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>37.5%</t>
+        </is>
+      </c>
+      <c r="R63" t="inlineStr">
+        <is>
+          <t>16/11/2025</t>
+        </is>
+      </c>
+      <c r="S63" t="inlineStr">
+        <is>
+          <t>11:26:29</t>
+        </is>
+      </c>
+      <c r="T63" t="inlineStr">
+        <is>
+          <t>Visando à instrução do processo de NATURALIZAÇÃO ORDINÁRIA requerido pelo Naturalizando MARCELDO ESTRAME, foram realizadas as diligências a seguir descritas:
+1. Não foi identificado início de falsidade documental ou contradição na documentação apresentada. 
+2. Para confirmação do tempo de residência por prazo indeterminado foram juntados ao processo:
+2.1. Certidão de Movimentos Migratórios
+2.1.1. O requerente NÃO ausentou-se do território nacional desde sua chegada em 2021 mas não foi registrad...</t>
+        </is>
+      </c>
+      <c r="U63" t="inlineStr">
+        <is>
+          <t>Não atendeu 2 requisito(s)</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>792137</v>
+      </c>
+      <c r="B64" t="n">
+        <v>792137</v>
+      </c>
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>27 de Out de 2025</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Naturalização Ordinária</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Indeferimento</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Art. 65, inciso II da Lei nº 13.445/2017</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Indeferimento</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>Nenhum</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>Processo indeferido por não atender aos requisitos</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>❌ NÃO ATENDIDO - Prazo de residência não localizado nos campos do sistema</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>✅ 100% (4/4)</t>
+        </is>
+      </c>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>7/8</t>
+        </is>
+      </c>
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>87.5%</t>
+        </is>
+      </c>
+      <c r="R64" t="inlineStr">
+        <is>
+          <t>16/11/2025</t>
+        </is>
+      </c>
+      <c r="S64" t="inlineStr">
+        <is>
+          <t>11:35:09</t>
+        </is>
+      </c>
+      <c r="T64" t="inlineStr">
+        <is>
+          <t>Assunto: Pedido de Naturalização ORDINÁRIA
+Processo: 792137
+Interessado (Naturalizando): NAMOUNE ILORSAINT TERMITUS
+RELATÓRIO OPINATIVO
+1.	Nos termos da legislação, realizadas as diligências necessárias à instrução do presente pedido de naturalização, apresento o presente Relatório Opinativo.
+2.	De acordo com a documentação apresentada, a naturalizanda possui capacidade civil.
+3.	Em relação às condições exigidas para a naturalização ORDINÁRIA, verificou-se que a requerente possui autorização...</t>
+        </is>
+      </c>
+      <c r="U64" t="inlineStr">
+        <is>
+          <t>Não atendeu 1 requisito(s)</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>790357</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>790357</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>13 de Mai de 2025</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>23 de Out de 2025</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
         <is>
           <t>Naturalização Ordinária</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Indeferimento</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Não encontrado</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Indeferimento</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Art. 65, inciso II da Lei nº 13.445/2017</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Indeferimento</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
         <is>
           <t>Nenhum</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="J65" t="inlineStr">
         <is>
           <t>Processo indeferido por não atender aos requisitos</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>❌ NÃO ATENDIDO - Capacidade Civil não atendido</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>❌ NÃO ATENDIDO - Residência Mínima não atendido</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>❌ NÃO ATENDIDO - Comunicação Português não atendido</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>❌ NÃO ATENDIDO - ❌ NÃO ATENDIDO</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0/4</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>13/11/2025</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>15:41:29</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>❌ NÃO ATENDIDO - Prazo de residência não localizado nos campos do sistema</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>✅ 100% (4/4)</t>
+        </is>
+      </c>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>7/8</t>
+        </is>
+      </c>
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>87.5%</t>
+        </is>
+      </c>
+      <c r="R65" t="inlineStr">
+        <is>
+          <t>16/11/2025</t>
+        </is>
+      </c>
+      <c r="S65" t="inlineStr">
+        <is>
+          <t>11:37:38</t>
+        </is>
+      </c>
+      <c r="T65" t="inlineStr">
+        <is>
+          <t>Visando à instrução do processo de NATURALIZAÇÃO ORDINÁRIA requerido pelo Naturalizando MARCELDO ESTRAME, foram realizadas as diligências a seguir descritas:
+1. Não foi identificado início de falsidade documental ou contradição na documentação apresentada. 
+2. Para confirmação do tempo de residência por prazo indeterminado foram juntados ao processo:
+2.1. Certidão de Movimentos Migratórios
+2.1.1. O requerente NÃO ausentou-se do território nacional desde sua chegada em 2021 mas não foi registrad...</t>
+        </is>
+      </c>
+      <c r="U65" t="inlineStr">
         <is>
           <t>Não atendeu 1 requisito(s)</t>
         </is>

--- a/Planilhas/analise_ordinaria_consolidada.xlsx
+++ b/Planilhas/analise_ordinaria_consolidada.xlsx
@@ -6787,15 +6787,15 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>790357</v>
+        <v>792137</v>
       </c>
       <c r="B63" t="n">
-        <v>790357</v>
+        <v>792137</v>
       </c>
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr">
         <is>
-          <t>23 de Out de 2025</t>
+          <t>27 de Out de 2025</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -6810,7 +6810,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Art. 65, inciso II da Lei nº 13.445/2017; Art. 65, inciso IV da Lei nº 13.445/2017; Não anexou item 8; Não anexou item 3; Não anexou item 2</t>
+          <t>Art. 65, inciso II da Lei nº 13.445/2017</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -6845,22 +6845,22 @@
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>❌ NÃO ATENDIDO - Antecedentes criminais inválidos ou não anexados</t>
+          <t>✅ ATENDIDO</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>✅ 25% (1/4)</t>
+          <t>✅ 100% (4/4)</t>
         </is>
       </c>
       <c r="P63" t="inlineStr">
         <is>
-          <t>3/8</t>
+          <t>7/8</t>
         </is>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>37.5%</t>
+          <t>87.5%</t>
         </is>
       </c>
       <c r="R63" t="inlineStr">
@@ -6870,113 +6870,10 @@
       </c>
       <c r="S63" t="inlineStr">
         <is>
-          <t>11:26:29</t>
+          <t>11:35:09</t>
         </is>
       </c>
       <c r="T63" t="inlineStr">
-        <is>
-          <t>Visando à instrução do processo de NATURALIZAÇÃO ORDINÁRIA requerido pelo Naturalizando MARCELDO ESTRAME, foram realizadas as diligências a seguir descritas:
-1. Não foi identificado início de falsidade documental ou contradição na documentação apresentada. 
-2. Para confirmação do tempo de residência por prazo indeterminado foram juntados ao processo:
-2.1. Certidão de Movimentos Migratórios
-2.1.1. O requerente NÃO ausentou-se do território nacional desde sua chegada em 2021 mas não foi registrad...</t>
-        </is>
-      </c>
-      <c r="U63" t="inlineStr">
-        <is>
-          <t>Não atendeu 2 requisito(s)</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="n">
-        <v>792137</v>
-      </c>
-      <c r="B64" t="n">
-        <v>792137</v>
-      </c>
-      <c r="C64" t="inlineStr"/>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>27 de Out de 2025</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>Naturalização Ordinária</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>Indeferimento</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>Art. 65, inciso II da Lei nº 13.445/2017</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>Indeferimento</t>
-        </is>
-      </c>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>Nenhum</t>
-        </is>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>Processo indeferido por não atender aos requisitos</t>
-        </is>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>✅ ATENDIDO</t>
-        </is>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>❌ NÃO ATENDIDO - Prazo de residência não localizado nos campos do sistema</t>
-        </is>
-      </c>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>✅ ATENDIDO</t>
-        </is>
-      </c>
-      <c r="N64" t="inlineStr">
-        <is>
-          <t>✅ ATENDIDO</t>
-        </is>
-      </c>
-      <c r="O64" t="inlineStr">
-        <is>
-          <t>✅ 100% (4/4)</t>
-        </is>
-      </c>
-      <c r="P64" t="inlineStr">
-        <is>
-          <t>7/8</t>
-        </is>
-      </c>
-      <c r="Q64" t="inlineStr">
-        <is>
-          <t>87.5%</t>
-        </is>
-      </c>
-      <c r="R64" t="inlineStr">
-        <is>
-          <t>16/11/2025</t>
-        </is>
-      </c>
-      <c r="S64" t="inlineStr">
-        <is>
-          <t>11:35:09</t>
-        </is>
-      </c>
-      <c r="T64" t="inlineStr">
         <is>
           <t>Assunto: Pedido de Naturalização ORDINÁRIA
 Processo: 792137
@@ -6987,109 +6884,101 @@
 3.	Em relação às condições exigidas para a naturalização ORDINÁRIA, verificou-se que a requerente possui autorização...</t>
         </is>
       </c>
-      <c r="U64" t="inlineStr">
+      <c r="U63" t="inlineStr">
         <is>
           <t>Não atendeu 1 requisito(s)</t>
         </is>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>790357</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>790357</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
+    <row r="64">
+      <c r="A64" t="n">
+        <v>790357</v>
+      </c>
+      <c r="B64" t="n">
+        <v>790357</v>
+      </c>
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="inlineStr">
         <is>
           <t>23 de Out de 2025</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>Naturalização Ordinária</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>Indeferimento</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Indeferimento</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
         <is>
           <t>Art. 65, inciso II da Lei nº 13.445/2017</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>Indeferimento</t>
-        </is>
-      </c>
-      <c r="I65" t="inlineStr">
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Indeferimento</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
         <is>
           <t>Nenhum</t>
         </is>
       </c>
-      <c r="J65" t="inlineStr">
+      <c r="J64" t="inlineStr">
         <is>
           <t>Processo indeferido por não atender aos requisitos</t>
         </is>
       </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>✅ ATENDIDO</t>
-        </is>
-      </c>
-      <c r="L65" t="inlineStr">
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
         <is>
           <t>❌ NÃO ATENDIDO - Prazo de residência não localizado nos campos do sistema</t>
         </is>
       </c>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>✅ ATENDIDO</t>
-        </is>
-      </c>
-      <c r="N65" t="inlineStr">
-        <is>
-          <t>✅ ATENDIDO</t>
-        </is>
-      </c>
-      <c r="O65" t="inlineStr">
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr">
         <is>
           <t>✅ 100% (4/4)</t>
         </is>
       </c>
-      <c r="P65" t="inlineStr">
+      <c r="P64" t="inlineStr">
         <is>
           <t>7/8</t>
         </is>
       </c>
-      <c r="Q65" t="inlineStr">
+      <c r="Q64" t="inlineStr">
         <is>
           <t>87.5%</t>
         </is>
       </c>
-      <c r="R65" t="inlineStr">
+      <c r="R64" t="inlineStr">
         <is>
           <t>16/11/2025</t>
         </is>
       </c>
-      <c r="S65" t="inlineStr">
+      <c r="S64" t="inlineStr">
         <is>
           <t>11:37:38</t>
         </is>
       </c>
-      <c r="T65" t="inlineStr">
+      <c r="T64" t="inlineStr">
         <is>
           <t>Visando à instrução do processo de NATURALIZAÇÃO ORDINÁRIA requerido pelo Naturalizando MARCELDO ESTRAME, foram realizadas as diligências a seguir descritas:
 1. Não foi identificado início de falsidade documental ou contradição na documentação apresentada. 
@@ -7098,9 +6987,119 @@
 2.1.1. O requerente NÃO ausentou-se do território nacional desde sua chegada em 2021 mas não foi registrad...</t>
         </is>
       </c>
+      <c r="U64" t="inlineStr">
+        <is>
+          <t>Não atendeu 1 requisito(s)</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>705567</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>705567</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>11 de Mar de 2025</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Naturalização Ordinária</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Indeferimento</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Art. 65, inciso II da Lei nº 13.445/2017; Art. 65, inciso III da Lei nº 13.445/2017; Art. 65, inciso IV da Lei nº 13.445/2017; Não anexou item 8; Não anexou item 4; Não anexou item 3; Não anexou item 2</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Indeferimento</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>Nenhum</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>Processo indeferido por não atender aos requisitos</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>❌ NÃO ATENDIDO - Prazo de residência não localizado nos campos do sistema</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>❌ NÃO ATENDIDO - Não anexou item 13 - Comprovante de comunicação em português</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>❌ NÃO ATENDIDO - Antecedentes criminais inválidos ou não anexados</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>✅ 0% (0/4)</t>
+        </is>
+      </c>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>1/8</t>
+        </is>
+      </c>
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>12.5%</t>
+        </is>
+      </c>
+      <c r="R65" t="inlineStr">
+        <is>
+          <t>17/11/2025</t>
+        </is>
+      </c>
+      <c r="S65" t="inlineStr">
+        <is>
+          <t>13:35:18</t>
+        </is>
+      </c>
+      <c r="T65" t="inlineStr">
+        <is>
+          <t>1. Nos termos da legislação, realizadas as diligências necessárias à instrução do presente pedido de Transformação de Naturalização Provisória em Definitiva apresento o presente Relatório Opinativo.
+2. A relação de documentos exigidos pela legislação, foi apresentada integralmente conforme documentos juntados ao processo.
+3. De acordo com a documentação apresentada, o naturalizando possui capacidade civil.
+4. Em relação às condições exigidas para a transformação de naturalização provisória em...</t>
+        </is>
+      </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>Não atendeu 1 requisito(s)</t>
+          <t>Não atendeu 3 requisito(s)</t>
         </is>
       </c>
     </row>

--- a/Planilhas/analise_ordinaria_consolidada.xlsx
+++ b/Planilhas/analise_ordinaria_consolidada.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U65"/>
+  <dimension ref="A1:U71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6994,21 +6994,13 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>705567</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>705567</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+      <c r="A65" t="n">
+        <v>705567</v>
+      </c>
+      <c r="B65" t="n">
+        <v>705567</v>
+      </c>
+      <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr">
         <is>
           <t>11 de Mar de 2025</t>
@@ -7100,6 +7092,626 @@
       <c r="U65" t="inlineStr">
         <is>
           <t>Não atendeu 3 requisito(s)</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>768046</v>
+      </c>
+      <c r="B66" t="n">
+        <v>768046</v>
+      </c>
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1 de Set de 2025</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Naturalização Ordinária</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Indeferimento</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Art. 65, inciso II da Lei nº 13.445/2017; 🚨 REQUERENTE NÃO ESTÁ NO PAÍS - INDEFERIMENTO AUTOMÁTICO; Não anexou item 2</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Indeferimento</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>🚨 REQUERENTE NÃO ESTÁ NO PAÍS - INDEFERIMENTO AUTOMÁTICO</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>Processo indeferido por não atender aos requisitos</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>❌ NÃO ATENDIDO - Prazo de residência não localizado nos campos do sistema</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>✅ 75% (3/4)</t>
+        </is>
+      </c>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>6/8</t>
+        </is>
+      </c>
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>75.0%</t>
+        </is>
+      </c>
+      <c r="R66" t="inlineStr">
+        <is>
+          <t>22/11/2025</t>
+        </is>
+      </c>
+      <c r="S66" t="inlineStr">
+        <is>
+          <t>14:36:14</t>
+        </is>
+      </c>
+      <c r="T66" t="inlineStr">
+        <is>
+          <t>1. Nos termos da legislação, realizadas as diligências necessárias à instrução do presente pedido de Naturalização Ordinária apresento o presente Relatório Opinativo.
+2. Conforme registro no Sistema de Tráfego Internacional - STI e no passaporte, o requerente não se encontra em território nacional na data da entrada do processo, impedindo a continuidade do processo.
+3. Diante do exposto, encaminhe-se ao Ministério da Justiça e Segurança Pública com opinião DESFAVORÁVEL AO DEFERIMENTO em razão ...</t>
+        </is>
+      </c>
+      <c r="U66" t="inlineStr">
+        <is>
+          <t>Não atendeu 2 requisito(s)</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>767995</v>
+      </c>
+      <c r="B67" t="n">
+        <v>767995</v>
+      </c>
+      <c r="C67" t="inlineStr"/>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1 de Set de 2025</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Naturalização Ordinária</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Indeferimento</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>⚠️ AUSÊNCIA DE COLETA BIOMÉTRICA CONSTATADA NO PARECER PF</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Indeferimento</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>⚠️ AUSÊNCIA DE COLETA BIOMÉTRICA CONSTATADA NO PARECER PF</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>Processo indeferido por não atender aos requisitos</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>✅ 100% (4/4)</t>
+        </is>
+      </c>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>8/8</t>
+        </is>
+      </c>
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="R67" t="inlineStr">
+        <is>
+          <t>22/11/2025</t>
+        </is>
+      </c>
+      <c r="S67" t="inlineStr">
+        <is>
+          <t>14:38:42</t>
+        </is>
+      </c>
+      <c r="T67" t="inlineStr">
+        <is>
+          <t>1.	Nos termos da legislação, realizadas as diligências necessárias à instrução do presente pedido de Naturalização Ordinária apresento o presente Relatório Opinativo.
+2.	De acordo com a documentação apresentada, o interessado possui capacidade civil. 
+3.	A relação de documentos exigidos pela legislação, NÃO foi apresentada integralmente conforme documentos juntados ao processo. NÃO apresentou:
+a.	Legalização ou apostilamento do atestado de antecedentes criminais emitido pelo país de origem (o do...</t>
+        </is>
+      </c>
+      <c r="U67" t="inlineStr">
+        <is>
+          <t>Não atendeu 1 requisito(s)</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>767111</v>
+      </c>
+      <c r="B68" t="n">
+        <v>767111</v>
+      </c>
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>29 de Ago de 2025</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Naturalização Ordinária</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Analise Manual</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Art. 65, inciso II da Lei nº 13.445/2017</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Indeferimento</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>⚠️ PARECER PF SEM PRAZO DE RESIDÊNCIA ESPECIFICADO</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>Processo encaminhado para ANÁLISE MANUAL devido a alerta(s) crítico(s) no parecer da PF ou dados insuficientes para decisão automática.</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>❌ NÃO ATENDIDO - Tempo insuficiente: 1.00 anos &lt; 3.95 anos</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>✅ 100% (4/4)</t>
+        </is>
+      </c>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>7/8</t>
+        </is>
+      </c>
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>87.5%</t>
+        </is>
+      </c>
+      <c r="R68" t="inlineStr">
+        <is>
+          <t>22/11/2025</t>
+        </is>
+      </c>
+      <c r="S68" t="inlineStr">
+        <is>
+          <t>14:40:59</t>
+        </is>
+      </c>
+      <c r="T68" t="inlineStr">
+        <is>
+          <t>Nos termos da legislação, realizadas as diligências necessárias à instrução do presente pedido de naturalização, apresento o presente Relatório Opinativo. 
+O artigo 65 da Lei 13.445/17 estabelece os seguintes requisitos para o deferimento da naturalização ordinária:
+I - ter capacidade civil, segundo a lei brasileira;
+II - ter residência em território nacional, pelo prazo mínimo de 4 (quatro) anos;
+III - comunicar-se em língua portuguesa, consideradas as condições do naturalizando; e
+IV - nã...</t>
+        </is>
+      </c>
+      <c r="U68" t="inlineStr">
+        <is>
+          <t>Caso marcado para análise manual (sem decisão automática de deferimento/indeferimento).</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>765992</v>
+      </c>
+      <c r="B69" t="n">
+        <v>765992</v>
+      </c>
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>27 de Ago de 2025</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Naturalização Ordinária</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Deferimento</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Indeferimento</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>Nenhum</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>Processo deferido automaticamente com base na análise de elegibilidade.</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>✅ 100% (4/4)</t>
+        </is>
+      </c>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>8/8</t>
+        </is>
+      </c>
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="R69" t="inlineStr">
+        <is>
+          <t>22/11/2025</t>
+        </is>
+      </c>
+      <c r="S69" t="inlineStr">
+        <is>
+          <t>14:44:28</t>
+        </is>
+      </c>
+      <c r="T69" t="inlineStr">
+        <is>
+          <t>RELATóRIO OPINATIVO/PARECER
+DATA 08/09/2025
+Naturalizando
+MOISE STERLING - G2975982: 
+1. Nos termos da legislação, realizadas as diligências necessárias à instrução do presente pedido de Naturalização Ordinária apresento o presente Relatório Opinativo/Parecer.
+2. A relação de documentos exigidos pela legislação, não foi apresentada integralmente conforme documentos juntados ao processo, visto que o naturalizando não compareceu nem justificou a falta ao agendamento/notificação.
+3. Notific...</t>
+        </is>
+      </c>
+      <c r="U69" t="inlineStr">
+        <is>
+          <t>Todos os requisitos atendidos segundo a análise automática.</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>763365</v>
+      </c>
+      <c r="B70" t="n">
+        <v>763365</v>
+      </c>
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>20 de Ago de 2025</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Naturalização Ordinária</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Deferimento</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Indeferimento</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>Nenhum</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>Processo deferido automaticamente com base na análise de elegibilidade.</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>✅ 100% (4/4)</t>
+        </is>
+      </c>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>8/8</t>
+        </is>
+      </c>
+      <c r="Q70" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="R70" t="inlineStr">
+        <is>
+          <t>22/11/2025</t>
+        </is>
+      </c>
+      <c r="S70" t="inlineStr">
+        <is>
+          <t>14:46:23</t>
+        </is>
+      </c>
+      <c r="T70" t="inlineStr">
+        <is>
+          <t>RELATóRIO OPINATIVO/PARECER
+DATA 29/08/2025
+Naturalizando
+JAMESLEY ESTIMABLE - G314924Y: 
+1. Nos termos da legislação, realizadas as diligências necessárias à instrução do presente pedido de Naturalização Ordinária apresento o presente Relatório Opinativo/Parecer.
+2. A relação de documentos exigidos pela legislação, não foi apresentada integralmente conforme documentos juntados ao processo, visto que o naturalizando não compareceu nem justificou a falta ao agendamento/notificação.
+3. Not...</t>
+        </is>
+      </c>
+      <c r="U70" t="inlineStr">
+        <is>
+          <t>Todos os requisitos atendidos segundo a análise automática.</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>762641</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>762641</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>18 de Ago de 2025</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Naturalização Ordinária</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Indeferimento</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Art. 65, inciso IV da Lei nº 13.445/2017; ⚠️ AUSÊNCIA DE COLETA BIOMÉTRICA CONSTATADA NO PARECER PF; Não anexou item 4</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Indeferimento</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>⚠️ AUSÊNCIA DE COLETA BIOMÉTRICA CONSTATADA NO PARECER PF</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>Processo indeferido por não atender aos requisitos</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>✅ ATENDIDO</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>❌ NÃO ATENDIDO - Antecedentes criminais inválidos ou não anexados</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>✅ 75% (3/4)</t>
+        </is>
+      </c>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>6/8</t>
+        </is>
+      </c>
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>75.0%</t>
+        </is>
+      </c>
+      <c r="R71" t="inlineStr">
+        <is>
+          <t>22/11/2025</t>
+        </is>
+      </c>
+      <c r="S71" t="inlineStr">
+        <is>
+          <t>14:47:25</t>
+        </is>
+      </c>
+      <c r="T71" t="inlineStr">
+        <is>
+          <t>1.	Nos termos da legislação, realizadas as diligências necessárias à instrução do presente pedido de Naturalização Ordinária apresento o presente Relatório Opinativo.
+2.	De acordo com a documentação apresentada, o interessado possui capacidade civil. 
+3.	A relação de documentos exigidos pela legislação, NÃO foi apresentada integralmente conforme documentos juntados ao processo. NÃO apresentou:
+a.	Cópia da Carteira de Registro Nacional Migratório;
+b.	Comprovante de situação cadastral do Cadastro ...</t>
+        </is>
+      </c>
+      <c r="U71" t="inlineStr">
+        <is>
+          <t>Não atendeu 2 requisito(s)</t>
         </is>
       </c>
     </row>
